--- a/jira_fields.xlsx
+++ b/jira_fields.xlsx
@@ -508,28 +508,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HHH-17740</t>
+          <t>HHH-17767</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hibernate 6 - @Filter annotation "Oracle: ORA-00918: column ambiguously defined" error</t>
+          <t>Add support for Value LOBs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Awaiting Response</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-02-14T15:18:08.925-0800</t>
+          <t>2024-02-21T09:27:32.673-0800</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ramazan Girgin</t>
+          <t>Loïc Lefèvre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -540,22 +540,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-02-15T01:15:45.792-0800</t>
+          <t>2024-02-21T09:28:21.743-0800</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6.3.1</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -572,28 +568,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHH-17739</t>
+          <t>HHH-17766</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>unhelpful CCE for field with unsupported collection type</t>
+          <t>Improve type of numeric and by unit expressions applied to converted attributes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Waiting for review</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-02-14T09:25:50.789-0800</t>
+          <t>2024-02-21T05:20:06.572-0800</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gavin King</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -604,59 +604,67 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-02-14T09:25:50.915-0800</t>
+          <t>2024-02-21T06:56:29.985-0800</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Improvement</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHH-17738</t>
+          <t>HHH-17765</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Add support for Oracle database AI Vector Search</t>
+          <t>Query method parameter checker unable to cope with multiline queries</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-02-14T03:00:04.222-0800</t>
+          <t>2024-02-21T05:03:08.579-0800</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Loïc Lefèvre</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Major</t>
@@ -664,15 +672,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-02-14T03:00:04.357-0800</t>
+          <t>2024-02-21T08:18:44.665-0800</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>[]</t>
@@ -680,43 +692,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHH-17737</t>
+          <t>HHH-17764</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Don't track changes if embeddable is annotated with @Immutable</t>
+          <t>checking / instantiation of result type for queries with single selection item</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gavin King</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-02-14T01:15:27.864-0800</t>
+          <t>2024-02-21T02:52:33.119-0800</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Falko Modler</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Gavin King</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Major</t>
@@ -724,7 +744,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-02-14T02:18:50.828-0800</t>
+          <t>2024-02-21T05:20:23.208-0800</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -735,49 +755,45 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHH-17736</t>
+          <t>HHH-17763</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Improve Atlas for atps</t>
+          <t>Hibernate Schema Validation filter is not working after upgrading to Hibernate 6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Loïc Lefèvre</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-02-14T01:12:49.908-0800</t>
+          <t>2024-02-21T00:22:07.822-0800</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Loïc Lefèvre</t>
+          <t>Valentino</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -788,18 +804,18 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-02-14T02:41:26.678-0800</t>
+          <t>2024-02-21T02:18:20.158-0800</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['testsuite']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -809,19 +825,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHH-17735</t>
+          <t>HHH-17762</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Community dialects for MySQL 5.x give invalid SQL syntax for locks since 6.4.4</t>
+          <t>SqlResultSetMapping for @SQL methods</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -832,12 +848,12 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-02-13T14:22:46.576-0800</t>
+          <t>2024-02-20T10:51:52.254-0800</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Will Herrmann</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -848,22 +864,18 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-02-13T14:22:46.803-0800</t>
+          <t>2024-02-20T10:51:52.346-0800</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>6.4.4</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['hibernate-jpamodelgen']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -880,28 +892,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHH-17734</t>
+          <t>HHH-17761</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hibernate should prioritize provider_class over datasource</t>
+          <t>Merging a bytecodeenhacned entity with all properties set to null does not apply the update</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Awaiting Contribution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-02-13T09:19:24.370-0800</t>
+          <t>2024-02-20T04:59:03.924-0800</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sai Y</t>
+          <t>Marko Bekhta</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -912,7 +924,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-13T11:33:35.178-0800</t>
+          <t>2024-02-20T05:02:13.060-0800</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -920,10 +932,14 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6.5.0</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -940,12 +956,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHH-17733</t>
+          <t>HHH-17760</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oracle - Stream has already been closed when querying an entity with a LONG RAW column and a relation</t>
+          <t xml:space="preserve">Hibernate allocationSize doesn't generate correct sequence number. </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -956,12 +972,12 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-02-13T08:41:58.601-0800</t>
+          <t>2024-02-20T01:46:26.409-0800</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SIA s.p.a</t>
+          <t>Omidp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -972,7 +988,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-02-13T23:50:02.366-0800</t>
+          <t>2024-02-20T01:47:48.789-0800</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -980,11 +996,7 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>6.3.0</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>['hibernate-core']</t>
@@ -1004,12 +1016,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HHH-17732</t>
+          <t>HHH-17759</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Improvement on "HHH015011: Unable to locate static metamodel field" error message</t>
+          <t>'::' casting syntax is crashed during query parsing</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1020,12 +1032,12 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-02-12T15:22:19.201-0800</t>
+          <t>2024-02-20T01:32:39.009-0800</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Archie Cobbs</t>
+          <t>yun abs</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1036,18 +1048,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-02-13T00:09:03.517-0800</t>
+          <t>2024-02-20T01:32:39.398-0800</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1064,28 +1080,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HHH-17731</t>
+          <t>HHH-17758</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DataIntegrityViolationException: Detached entity with generated id has an uninitialized version value 'null'</t>
+          <t>Sometime in hibernate custom query count query does not get triggered automatically</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Awaiting Test Case</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-02-12T12:58:44.972-0800</t>
+          <t>2024-02-20T00:35:13.519-0800</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>hafssa askaoui</t>
+          <t>kirtan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1096,7 +1112,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-02-13T00:13:01.106-0800</t>
+          <t>2024-02-20T00:35:13.630-0800</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1106,12 +1122,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.1.7</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1128,32 +1144,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HHH-17730</t>
+          <t>HHH-17757</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regression in 6.4.3: "IllegalAccessException: Can not set final java.util.UUID field" when using record as embedded id</t>
+          <t>Add attributes for actual type parameters</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-02-12T09:20:44.003-0800</t>
+          <t>2024-02-19T20:36:59.351-0800</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Falko Modler</t>
+          <t>Jin Kwon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1164,22 +1176,18 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-02-15T02:00:49.133-0800</t>
+          <t>2024-02-21T03:11:34.668-0800</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>6.4.4</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metamodel']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1196,35 +1204,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HHH-17729</t>
+          <t>HHH-17756</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.x EntityManager createQuery() method doesn't check constructor field type</t>
+          <t>Entities with @SecondaryTable populated properties can not be eagerly loaded from NativeQueries</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-02-09T23:54:02.809-0800</t>
+          <t>2024-02-19T15:16:13.006-0800</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>elic miro</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Jeff Maxwell</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1232,7 +1236,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-02-12T00:12:00.250-0800</t>
+          <t>2024-02-20T10:40:11.733-0800</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1252,29 +1256,29 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HHH-17728</t>
+          <t>HHH-17755</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>paths in query parameters</t>
+          <t>OneToMany mapping with IdClass does not set id as foreign key</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1284,15 +1288,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-02-09T15:03:03.755-0800</t>
+          <t>2024-02-19T12:45:51.391-0800</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Steven Taylor</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1300,12 +1308,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-02-09T15:03:33.855-0800</t>
+          <t>2024-02-20T13:32:22.760-0800</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>New Feature</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1316,47 +1324,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HHH-17727</t>
+          <t>HHH-17754</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Omit subclass tables in SQL when selecting only discriminator just like we do for basic attributes</t>
+          <t>Upgrade to Byte Buddy 1.14.12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Sanne Grinovero</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-02-09T12:03:37.376-0800</t>
+          <t>2024-02-19T09:46:05.761-0800</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ilia Basin</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Sanne Grinovero</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1364,12 +1376,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-02-12T01:44:28.969-0800</t>
+          <t>2024-02-19T23:56:40.051-0800</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1380,44 +1392,40 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHH-17726</t>
+          <t>HHH-17753</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Could not convert 'sun.util.calendar.ZoneInfo' to 'java.util.TimeZone' using 'org.hibernate.type.descriptor.java.TimeZoneJavaType' to wrap</t>
+          <t>Option to temporarily disable @SoftDelete</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-02-09T06:53:07.791-0800</t>
+          <t>2024-02-19T08:55:49.019-0800</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marco Costa</t>
+          <t>w0pp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1428,19 +1436,15 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-02-13T02:13:54.541-0800</t>
+          <t>2024-02-19T22:54:36.343-0800</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>6.4.4</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1460,12 +1464,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HHH-17725</t>
+          <t>HHH-17752</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NATIONALIZED_PREFIX not used with Upper function</t>
+          <t>Hibernate Removes too much Whitespaces</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1476,12 +1480,12 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-02-09T01:28:02.524-0800</t>
+          <t>2024-02-19T08:19:35.797-0800</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Markus Lutum</t>
+          <t>BastiBl</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1492,7 +1496,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-02-15T00:38:49.727-0800</t>
+          <t>2024-02-20T00:37:37.530-0800</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6.2.22</t>
+          <t>6.4.1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1524,39 +1528,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HHH-17724</t>
+          <t>HHH-17751</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Add HibernateCriteriaBuilder.count() to map to count(*)</t>
+          <t>Versionless optimistic locking : Database-generated version timestamp mapping not working</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-02-08T03:24:53.500-0800</t>
+          <t>2024-02-19T07:07:52.559-0800</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Ouari</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1564,45 +1560,49 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-02-08T07:09:16.694-0800</t>
+          <t>2024-02-19T09:59:29.554-0800</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['hibernate-core', 'query-criteria']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HHH-17723</t>
+          <t>HHH-17750</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Release Hibernate ORM 6.4.4.Final</t>
+          <t>JPA entities containing LAZY loaded relations cannot be merged in another transaction</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Awaiting Contribution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1612,19 +1612,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-02-08T01:47:05.232-0800</t>
+          <t>2024-02-18T21:55:35.565-0800</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+          <t>Yannick Majoros</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1632,15 +1628,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-02-09T03:51:24.290-0800</t>
+          <t>2024-02-21T02:33:31.182-0800</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>6.2.19</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1653,46 +1653,38 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HHH-17722</t>
+          <t>HHH-17749</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Release Hibernate ORM 5.3.36.Final</t>
+          <t>Add more tests to cover annotation processor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-02-08T01:33:04.193-0800</t>
+          <t>2024-02-18T19:26:06.735-0800</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>周雁鸣</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1700,12 +1692,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-02-08T03:04:49.888-0800</t>
+          <t>2024-02-18T19:26:06.879-0800</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Improvement</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1721,19 +1713,19 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HHH-17721</t>
+          <t>HHH-17748</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>improvements to checking of parameters of @Find and @HQL methods</t>
+          <t>accept abbreviated enum value names in HQL 'when' clause</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1748,7 +1740,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-02-08T00:50:21.345-0800</t>
+          <t>2024-02-18T13:12:43.521-0800</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1768,7 +1760,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-02-08T00:58:52.308-0800</t>
+          <t>2024-02-19T03:09:22.121-0800</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1779,7 +1771,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['hibernate-jpamodelgen']</t>
+          <t>['hibernate-core', 'query-hql']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1796,31 +1788,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HHH-17720</t>
+          <t>HHH-17747</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Add common JAXB contracts for named queries</t>
+          <t>Merge fails when entity has an EmbeddedId Java record</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-02-07T08:06:58.060-0800</t>
+          <t>2024-02-18T02:47:27.634-0800</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Steve Ebersole</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Čedomir Igaly</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Major</t>
@@ -1828,18 +1824,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-02-07T08:06:58.438-0800</t>
+          <t>2024-02-19T02:15:57.751-0800</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1849,19 +1849,19 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HHH-17719</t>
+          <t>HHH-17746</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Supports boolean as return type of mutation query method</t>
+          <t>usability improvements to property setting via Configuration</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>周雁鸣</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-02-07T01:30:38.763-0800</t>
+          <t>2024-02-17T01:16:50.925-0800</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>周雁鸣</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-02-07T07:30:49.301-0800</t>
+          <t>2024-02-19T02:43:05.300-0800</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1907,7 +1907,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['metamodel']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1924,33 +1924,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HHH-17718</t>
+          <t>HHH-17745</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Attribute#getJavaType does not return actual type anymore</t>
+          <t>embeddable arguments to @HQL query methods</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Gavin King</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-02-07T00:07:41.911-0800</t>
+          <t>2024-02-16T10:26:12.683-0800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jin Kwon</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1960,7 +1964,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-02-07T00:32:45.378-0800</t>
+          <t>2024-02-19T02:44:57.230-0800</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1968,19 +1972,15 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>6.4.1</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['metamodel']</t>
+          <t>['hibernate-jpamodelgen']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1992,32 +1992,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HHH-17717</t>
+          <t>HHH-17744</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Semicolon(`;`) will affects paramter mapping</t>
+          <t>java.lang.IllegalStateException when use unionAll query in CTE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>qinxi</t>
-        </is>
-      </c>
+          <t>Awaiting Contribution</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-02-06T23:59:27.796-0800</t>
+          <t>2024-02-16T04:50:11.097-0800</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>qinxi</t>
+          <t>Drozdiuk Oleksandr</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -2028,18 +2024,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-02-07T00:06:22.250-0800</t>
+          <t>2024-02-19T05:32:11.545-0800</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['hibernate-core', 'query-sql']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2049,46 +2049,38 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HHH-17716</t>
+          <t>HHH-17743</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>implement JtaTransactionAdapterTransactionManagerImpl.setTimeOut()</t>
+          <t>hibernate.allow_update_outside_transaction=true property is not working after migration from Hibernate 5.6.15 to 6.4.1 version</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
+          <t>Waiting for review</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-02-06T10:04:20.416-0800</t>
+          <t>2024-02-16T02:18:17.395-0800</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Pratheeksha Shetty</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2096,15 +2088,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-02-07T02:08:16.845-0800</t>
+          <t>2024-02-20T03:27:38.007-0800</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>6.4.1</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>['hibernate-core']</t>
@@ -2112,49 +2108,49 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HHH-17715</t>
+          <t>HHH-17742</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Upgrade Antlr to 4.13.1</t>
+          <t>Race condition in ConcreteSqmSelectQueryPlan#withCacheableSqmInterpretation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
+          <t>Ken Schosinsky</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-02-06T06:16:04.929-0800</t>
+          <t>2024-02-16T00:42:41.028-0800</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
+          <t>Ken Schosinsky</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2164,15 +2160,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-02-08T00:00:42.169-0800</t>
+          <t>2024-02-19T05:15:59.047-0800</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>['hibernate-core']</t>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2192,28 +2192,28 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HHH-17714</t>
+          <t>HHH-17741</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Symbol$TypeVariableSymbol cannot be cast to class javax.lang.model.element.TypeElement</t>
+          <t xml:space="preserve"> Column 'b' is duplicated in mapping for entity ....  (use '@Column(insertable=false, updatable=false)' when mapping multiple properties to the same column)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Awaiting Response</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-02-06T00:54:05.957-0800</t>
+          <t>2024-02-15T13:07:50.010-0800</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jin Kwon</t>
+          <t>Yasin Herken</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-02-06T01:04:10.105-0800</t>
+          <t>2024-02-16T00:39:13.459-0800</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5.6.15</t>
+          <t>6.4.1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['metamodel']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2256,12 +2256,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HHH-17713</t>
+          <t>HHH-17740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Upgrade ByteBuddy to 1.14.11</t>
+          <t>Hibernate 6 - @Filter annotation "Oracle: ORA-00918: column ambiguously defined" error</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2269,24 +2269,20 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Scott Marlow</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-02-05T14:50:26.480-0800</t>
+          <t>2024-02-14T15:18:08.925-0800</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
+          <t>Ramazan Girgin</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2296,23 +2292,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.654-0800</t>
+          <t>2024-02-16T00:00:58.108-0800</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>6.3.1</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['bytecode-enhancement']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['6.5.0', '6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2324,12 +2324,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HHH-17712</t>
+          <t>HHH-17739</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Make extending StatisticalLoggingSessionEventListener easier</t>
+          <t>unhelpful CCE for field with unsupported collection type</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2340,12 +2340,12 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-02-05T13:07:36.483-0800</t>
+          <t>2024-02-14T09:25:50.789-0800</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nuno Marujo</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2356,18 +2356,18 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-02-05T14:20:01.987-0800</t>
+          <t>2024-02-14T09:25:50.915-0800</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['hibernate-orm-modules']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2384,32 +2384,28 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHH-17711</t>
+          <t>HHH-17738</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Multiple level joined inheritance leads to incorrect discriminator alias</t>
+          <t>Add support for Oracle database AI Vector Search</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-02-05T09:34:45.473-0800</t>
+          <t>2024-02-14T03:00:04.222-0800</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Radek Postołowicz</t>
+          <t>Loïc Lefèvre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2420,19 +2416,15 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-02-12T07:37:12.633-0800</t>
+          <t>2024-02-14T03:00:04.357-0800</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>6.4.3</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2440,47 +2432,43 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHH-17710</t>
+          <t>HHH-17737</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">use_nationalized_character_data with  value_handling_mode=inline create lowercase n'theValue' instead of N'theValue' </t>
+          <t>Don't track changes if embeddable is annotated with @Immutable</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-02-05T07:36:28.410-0800</t>
+          <t>2024-02-14T01:15:27.864-0800</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Markus Lutum</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Out of Date</t>
-        </is>
-      </c>
+          <t>Falko Modler</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2488,22 +2476,18 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-02-08T06:02:18.083-0800</t>
+          <t>2024-02-14T02:18:50.828-0800</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>6.2.22</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2513,35 +2497,39 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHH-17709</t>
+          <t>HHH-17736</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Default mutability plan for JSON/XML mapped attributes</t>
+          <t>Improve Atlas for atps</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Waiting for review</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Loïc Lefèvre</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-02-05T03:53:19.957-0800</t>
+          <t>2024-02-14T01:12:49.908-0800</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>Loïc Lefèvre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2552,7 +2540,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-02-05T03:53:20.398-0800</t>
+          <t>2024-02-14T02:41:26.678-0800</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2563,7 +2551,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['testsuite']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2573,46 +2561,38 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HHH-17708</t>
+          <t>HHH-17735</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fix formatting/anchor in documentation of @Struct</t>
+          <t>Community dialects for MySQL 5.x give invalid SQL syntax for locks since 6.4.4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Yoann Rodière</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-02-05T00:04:35.733-0800</t>
+          <t>2024-02-13T14:22:46.576-0800</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yoann Rodière</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Will Herrmann</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2620,67 +2600,67 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.920-0800</t>
+          <t>2024-02-13T14:22:46.803-0800</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['documentation']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HHH-17707</t>
+          <t>HHH-17734</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Improve ColumnReference.toString() to remove repeated qualifier</t>
+          <t>Hibernate should prioritize provider_class over datasource</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Waiting for review</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>周雁鸣</t>
+          <t>Christian Beikov</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-02-03T23:36:37.962-0800</t>
+          <t>2024-02-13T09:19:24.370-0800</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>周雁鸣</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Sai Y</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2688,67 +2668,59 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-02-05T04:36:47.799-0800</t>
+          <t>2024-02-21T09:25:54.374-0800</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HHH-17706</t>
+          <t>HHH-17733</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regression on comparing association primary key</t>
+          <t>Oracle - Stream has already been closed when querying an entity with a LONG RAW column and a relation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>周雁鸣</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-02-03T19:11:18.734-0800</t>
+          <t>2024-02-13T08:41:58.601-0800</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>周雁鸣</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
+          <t>SIA s.p.a</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2756,7 +2728,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-02-07T01:41:48.537-0800</t>
+          <t>2024-02-13T23:50:02.366-0800</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2766,7 +2738,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>6.4.3</t>
+          <t>6.3.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2781,46 +2753,38 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HHH-17705</t>
+          <t>HHH-17732</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NullPointerException during enhancement when using the default BytecodeProvider in Wildfly</t>
+          <t>Improvement on "HHH015011: Unable to locate static metamodel field" error message</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-02-02T07:33:31.448-0800</t>
+          <t>2024-02-12T15:22:19.201-0800</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Archie Cobbs</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2828,44 +2792,40 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.788-0800</t>
+          <t>2024-02-13T00:09:03.517-0800</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>6.4.3</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['bytecode-enhancement']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HHH-17704</t>
+          <t>HHH-17731</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Query using detached Proxy as parameter fails with LazyInitializationException</t>
+          <t>DataIntegrityViolationException: Detached entity with generated id has an uninitialized version value 'null'</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2873,24 +2833,20 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-02-02T05:07:08.420-0800</t>
+          <t>2024-02-12T12:58:44.972-0800</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Robert Thaler</t>
+          <t>hafssa askaoui</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2900,7 +2856,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.510-0800</t>
+          <t>2024-02-20T04:58:29.799-0800</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2910,17 +2866,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2932,33 +2888,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HHH-17703</t>
+          <t>HHH-17730</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>@Subselect with @FilterDef does not work in Hibernate 6.x as in 5.x</t>
+          <t>Merge causes "IllegalAccessException can not set final field" when using record as embedded id</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-02-02T03:14:08.353-0800</t>
+          <t>2024-02-12T09:20:44.003-0800</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Werner de Groot</t>
+          <t>Falko Modler</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2968,7 +2928,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-02-13T00:38:14.052-0800</t>
+          <t>2024-02-20T05:12:08.361-0800</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2976,7 +2936,11 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2984,7 +2948,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2996,32 +2960,28 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HHH-17702</t>
+          <t>HHH-17729</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Release ORM 6.4.3.Final</t>
+          <t>6.x EntityManager createQuery() method doesn't check constructor field type</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-02-02T02:16:47.613-0800</t>
+          <t>2024-02-09T23:54:02.809-0800</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
+          <t>elic miro</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3036,23 +2996,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-02-02T02:39:33.944-0800</t>
+          <t>2024-02-19T05:22:08.706-0800</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>6.4.4</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3064,32 +3028,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HHH-17701</t>
+          <t>HHH-17728</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>@Converter ignored for attributes used in tuples leading to NullPointerException in TupleMappingModelExpressible constructor</t>
+          <t>paths in query parameters</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-02-02T01:49:31.868-0800</t>
+          <t>2024-02-09T15:03:03.755-0800</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stefan Schilling</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -3100,19 +3064,15 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-02-15T01:58:33.960-0800</t>
+          <t>2024-02-09T15:03:33.855-0800</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>6.4.4</t>
-        </is>
-      </c>
+          <t>New Feature</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3120,47 +3080,51 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HHH-17700</t>
+          <t>HHH-17727</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Incorrect paginated native query with semicolon</t>
+          <t>Omit subclass tables in SQL when selecting only discriminator just like we do for basic attributes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>François Vanhille</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-02-01T09:43:20.571-0800</t>
+          <t>2024-02-09T12:03:37.376-0800</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>François Vanhille</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Ilia Basin</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3168,67 +3132,63 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-02-12T08:09:43.190-0800</t>
+          <t>2024-02-19T02:47:06.509-0800</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HHH-17699</t>
+          <t>HHH-17726</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hibernate.unproxy() does not unproxy lazy fetched collections correctly which are members of the unproxied object</t>
+          <t>Could not convert 'sun.util.calendar.ZoneInfo' to 'java.util.TimeZone' using 'org.hibernate.type.descriptor.java.TimeZoneJavaType' to wrap</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Awaiting Contribution</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-02-01T09:24:09.810-0800</t>
+          <t>2024-02-09T06:53:07.791-0800</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Thomas Herth</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
+          <t>Marco Costa</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3236,7 +3196,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-02-02T03:01:43.609-0800</t>
+          <t>2024-02-13T02:13:54.541-0800</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3246,7 +3206,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.4.4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3256,24 +3216,24 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HHH-17698</t>
+          <t>HHH-17725</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Association not populated when using entity graphs and setMaxResults</t>
+          <t>NATIONALIZED_PREFIX not used with Upper function</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3284,12 +3244,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-02-01T02:30:00.554-0800</t>
+          <t>2024-02-09T01:28:02.524-0800</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Davide D'Alto</t>
+          <t>Markus Lutum</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3300,7 +3260,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-02-02T05:31:59.615-0800</t>
+          <t>2024-02-16T01:28:07.492-0800</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3310,7 +3270,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.2.22</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3332,31 +3292,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HHH-17697</t>
+          <t>HHH-17724</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Remove deprecated annotations</t>
+          <t>Add HibernateCriteriaBuilder.count() to map to count(*)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gavin King</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-31T22:17:10.773-0800</t>
+          <t>2024-02-08T03:24:53.500-0800</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Steve Ebersole</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Gavin King</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3364,65 +3332,65 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-02-01T03:38:57.168-0800</t>
+          <t>2024-02-08T07:09:16.694-0800</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Remove Feature</t>
+          <t>Improvement</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core', 'query-criteria']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['7.0']</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HHH-17696</t>
+          <t>HHH-17723</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AltibaseDialect should support Altibase 7.1 server and above</t>
+          <t>Release Hibernate ORM 6.4.4.Final</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Geoffrey Park</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-01-31T20:27:17.973-0800</t>
+          <t>2024-02-08T01:47:05.232-0800</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Geoffrey Park</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3432,23 +3400,23 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-02-05T04:34:32.068-0800</t>
+          <t>2024-02-09T03:51:24.290-0800</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3460,35 +3428,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HHH-17695</t>
+          <t>HHH-17722</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Persistence fails when nested JSON aggregate is null</t>
+          <t>Release Hibernate ORM 5.3.36.Final</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-31T10:14:19.727-0800</t>
+          <t>2024-02-08T01:33:04.193-0800</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Yorrick Lans</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Andrea Boriero</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3496,19 +3468,15 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-02-15T01:58:14.677-0800</t>
+          <t>2024-02-08T03:04:49.888-0800</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>6.4.4</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3516,43 +3484,51 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HHH-17694</t>
+          <t>HHH-17721</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Repeatable annotations are not properly managed by JPAXMLOverriddenAnnotationReader</t>
+          <t>improvements to checking of parameters of @Find and @HQL methods</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Gavin King</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-31T07:58:38.977-0800</t>
+          <t>2024-02-08T00:50:21.345-0800</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stefano Gianelli</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Gavin King</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3560,71 +3536,59 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-02-01T00:57:24.574-0800</t>
+          <t>2024-02-08T00:58:52.308-0800</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-jpamodelgen']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HHH-17693</t>
+          <t>HHH-17720</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cannot use 'like' operand when an AttributeConverter is used to convert the attribute in a String</t>
+          <t>Add common JAXB contracts for named queries</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-31T07:07:01.249-0800</t>
+          <t>2024-02-07T08:06:58.060-0800</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stefano Gianelli</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Steve Ebersole</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3632,19 +3596,15 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.381-0800</t>
+          <t>2024-02-07T08:06:58.438-0800</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>6.4.3</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3652,45 +3612,49 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HHH-17692</t>
+          <t>HHH-17719</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FunctionArgumentException when using criteria coalesce with Join nodes</t>
+          <t>Supports boolean as return type of mutation query method</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>周雁鸣</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-31T04:42:16.959-0800</t>
+          <t>2024-02-07T01:30:38.763-0800</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bartlomiej Niemiec</t>
+          <t>周雁鸣</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Won't Fix</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3700,27 +3664,23 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-01-31T04:46:23.735-0800</t>
+          <t>2024-02-16T01:33:52.950-0800</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['hibernate-core', 'query-criteria']</t>
+          <t>['metamodel']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0', '6.4.5']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3732,35 +3692,35 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HHH-17691</t>
+          <t>HHH-17718</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avoid sequence query when hbm2ddl will recreate sequences</t>
+          <t>Attribute#getJavaType does not return actual type anymore</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Jan Schatteman</t>
-        </is>
-      </c>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-01-31T04:35:57.551-0800</t>
+          <t>2024-02-07T00:07:41.911-0800</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Jin Kwon</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3768,18 +3728,22 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-02-12T07:40:14.874-0800</t>
+          <t>2024-02-07T00:32:45.378-0800</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>6.4.1</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metamodel']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3789,40 +3753,44 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HHH-17690</t>
+          <t>HHH-17717</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Joins with Predicates using Criteria API in combination with EntityGraph poducing additional joins.</t>
+          <t>Semicolon(`;`) will affects paramter mapping</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>qinxi</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-31T01:40:23.035-0800</t>
+          <t>2024-02-06T23:59:27.796-0800</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sebastian Fincke</t>
+          <t>qinxi</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3832,27 +3800,23 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-02-02T02:36:45.024-0800</t>
+          <t>2024-02-16T04:35:25.190-0800</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['hibernate-core', 'query-sql']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3864,32 +3828,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HHH-17689</t>
+          <t>HHH-17716</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cache SQL statement for unique key lookup</t>
+          <t>implement JtaTransactionAdapterTransactionManagerImpl.setTimeOut()</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-30T09:42:21.886-0800</t>
+          <t>2024-02-06T10:04:20.416-0800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3904,27 +3868,23 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:38.394-0800</t>
+          <t>2024-02-16T01:34:21.368-0800</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.5.0', '6.4.5']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3936,12 +3896,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HHH-17688</t>
+          <t>HHH-17715</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mutation statements using delegates do not consistently release statements</t>
+          <t>Upgrade Antlr to 4.13.1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3951,22 +3911,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Scott Marlow</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-30T05:26:47.301-0800</t>
+          <t>2024-02-06T06:16:04.929-0800</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Scott Marlow</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3976,27 +3936,23 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:46.961-0800</t>
+          <t>2024-02-08T00:00:42.169-0800</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>6.4.3</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4008,39 +3964,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HHH-17687</t>
+          <t>HHH-17714</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AttributeConverter, query does not use converter to convert 'null' fields</t>
+          <t>Symbol$TypeVariableSymbol cannot be cast to class javax.lang.model.element.TypeElement</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-30T02:23:49.277-0800</t>
+          <t>2024-02-06T00:54:05.957-0800</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vadym Kovalchuk</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Jin Kwon</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>Major</t>
@@ -4048,7 +3996,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:39.284-0800</t>
+          <t>2024-02-06T01:04:10.105-0800</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4058,34 +4006,34 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>5.6.15</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['metamodel']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HHH-17686</t>
+          <t>HHH-17713</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Join with inheritance subtype association doesn't trigger auto-flush</t>
+          <t>Upgrade ByteBuddy to 1.14.11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4095,17 +4043,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Scott Marlow</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-29T07:46:04.691-0800</t>
+          <t>2024-02-05T14:50:26.480-0800</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Miroslav Šilhavý</t>
+          <t>Scott Marlow</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4120,27 +4068,23 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:39.147-0800</t>
+          <t>2024-02-08T05:15:47.654-0800</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bytecode-enhancement']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.5.0', '6.4.4']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4152,28 +4096,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HHH-17685</t>
+          <t>HHH-17712</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>In-Predicate with Enum requires cast in Oracle</t>
+          <t>Make extending StatisticalLoggingSessionEventListener easier</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Awaiting Response</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-29T05:37:16.445-0800</t>
+          <t>2024-02-05T13:07:36.483-0800</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Martin Vlcek</t>
+          <t>Nuno Marujo</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -4184,22 +4128,18 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-01-31T00:33:46.602-0800</t>
+          <t>2024-02-05T14:20:01.987-0800</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>6.3.1</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-orm-modules']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4216,28 +4156,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HHH-17684</t>
+          <t>HHH-17711</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>java.lang.IllegalArgumentException: Expecting collection type [java.lang.Object] after upgrading Hibernate-core to 5.6</t>
+          <t>Multiple level joined inheritance leads to incorrect discriminator alias</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Awaiting Response</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Waiting for review</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-01-29T03:58:30.218-0800</t>
+          <t>2024-02-05T09:34:45.473-0800</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>user20885407</t>
+          <t>Radek Postołowicz</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -4248,7 +4192,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-02-01T02:13:23.065-0800</t>
+          <t>2024-02-12T07:37:12.633-0800</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4256,7 +4200,11 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>6.4.3</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4264,24 +4212,24 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HHH-17683</t>
+          <t>HHH-17710</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hibernate-jpamodelgen generates wrong constructor for metamodel of entities whose methods contain a `static EntityManager getEntityManager()`</t>
+          <t xml:space="preserve">use_nationalized_character_data with  value_handling_mode=inline create lowercase n'theValue' instead of N'theValue' </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4289,24 +4237,20 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Gavin King</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-01-29T02:56:40.042-0800</t>
+          <t>2024-02-05T07:36:28.410-0800</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yoann Rodière</t>
+          <t>Markus Lutum</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Out of Date</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4316,7 +4260,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:37.336-0800</t>
+          <t>2024-02-08T06:02:18.083-0800</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4326,17 +4270,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.2.22</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['hibernate-jpamodelgen']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4348,39 +4292,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HHH-17682</t>
+          <t>HHH-17709</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Expose JpaRoot interface on CriteriaUpdate/CriteriaDelete queries</t>
+          <t>Default mutability plan for JSON/XML mapped attributes</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-02-05T03:53:19.957-0800</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>Christian Beikov</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2024-01-26T06:32:35.186-0800</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yoann Rodière</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>Major</t>
@@ -4388,7 +4324,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-01-28T23:48:51.946-0800</t>
+          <t>2024-02-05T03:53:20.398-0800</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4399,29 +4335,29 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['query-criteria']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HHH-17681</t>
+          <t>HHH-17708</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Restore AbstractSqmSelfRenderingFunctionDescriptor backwards compatibility</t>
+          <t>Fix formatting/anchor in documentation of @Struct</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4431,17 +4367,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>Yoann Rodière</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-26T03:23:45.392-0800</t>
+          <t>2024-02-05T00:04:35.733-0800</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>Yoann Rodière</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4456,27 +4392,23 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:37.801-0800</t>
+          <t>2024-02-08T05:15:47.920-0800</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>6.4.0</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['documentation']</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.4.4']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4488,31 +4420,39 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HHH-17680</t>
+          <t>HHH-17707</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">More than one entities that have LIST&lt;STRING&gt; entity properties with/without @JdbcTypeCode(SqlTypes.JSON) have different effects in Linux and Windows </t>
+          <t>Improve ColumnReference.toString() to remove repeated qualifier</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Awaiting Response</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>周雁鸣</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-25T22:56:43.905-0800</t>
+          <t>2024-02-03T23:36:37.962-0800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Orwen Xiang</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>周雁鸣</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>Major</t>
@@ -4520,44 +4460,40 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-02-01T02:37:15.968-0800</t>
+          <t>2024-02-05T04:36:47.799-0800</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>6.4.1</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HHH-17679</t>
+          <t>HHH-17706</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Unnecessary entity name usage leads to collection element join</t>
+          <t>Regression on comparing association primary key</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4567,22 +4503,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>周雁鸣</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-25T04:49:31.049-0800</t>
+          <t>2024-02-03T19:11:18.734-0800</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
+          <t>周雁鸣</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4592,7 +4528,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:36.913-0800</t>
+          <t>2024-02-07T01:41:48.537-0800</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4602,17 +4538,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.3</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4624,31 +4560,39 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HHH-17678</t>
+          <t>HHH-17705</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ClassCastExceptiClassCastException with Hibernate ORM 6.4.2 and Spring Boot 3.2.2</t>
+          <t>NullPointerException during enhancement when using the default BytecodeProvider in Wildfly</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Awaiting Test Case</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-25T00:34:06.845-0800</t>
+          <t>2024-02-02T07:33:31.448-0800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>胡兴哲</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Scott Marlow</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Major</t>
@@ -4656,7 +4600,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-01-31T04:28:42.470-0800</t>
+          <t>2024-02-08T05:15:47.788-0800</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4666,34 +4610,34 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.3</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['bytecode-enhancement']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.4']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HHH-17677</t>
+          <t>HHH-17704</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COALESCE usage in SQL is broken when giving NULL as second parameter</t>
+          <t>Query using detached Proxy as parameter fails with LazyInitializationException</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4703,17 +4647,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gavin King</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-24T23:58:11.639-0800</t>
+          <t>2024-02-02T05:07:08.420-0800</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mikael Korpimaa</t>
+          <t>Robert Thaler</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4728,7 +4672,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:36.350-0800</t>
+          <t>2024-02-08T05:15:47.510-0800</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4738,17 +4682,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>6.4.0</t>
+          <t>6.4.2</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.4.4']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4760,12 +4704,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HHH-17676</t>
+          <t>HHH-17703</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Referenced column  mapped by target property  occurs out of order in the list of '@JoinColumn's</t>
+          <t>@Subselect with @FilterDef does not work in Hibernate 6.x as in 5.x</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4773,24 +4717,20 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-01-24T08:50:43.681-0800</t>
+          <t>2024-02-02T03:14:08.353-0800</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>xz</t>
+          <t>Werner de Groot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Out of Date</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4800,7 +4740,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-02-05T04:59:40.288-0800</t>
+          <t>2024-02-13T00:38:14.052-0800</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4808,11 +4748,7 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>6.4.1</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4832,32 +4768,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HHH-17675</t>
+          <t>HHH-17702</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Support enum type on H2</t>
+          <t>Release ORM 6.4.3.Final</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jürgen Kreitler</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-24T07:01:09.215-0800</t>
+          <t>2024-02-02T02:16:47.613-0800</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Jürgen Kreitler</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4872,23 +4808,23 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-01-25T02:15:03.722-0800</t>
+          <t>2024-02-02T02:39:33.944-0800</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4900,32 +4836,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HHH-17674</t>
+          <t>HHH-17701</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NullPointerException thrown when loading entity previously evicted and proxied</t>
+          <t>@Converter ignored for attributes used in tuples leading to NullPointerException in TupleMappingModelExpressible constructor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-24T03:33:14.911-0800</t>
+          <t>2024-02-02T01:49:31.868-0800</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Piotr Wolny</t>
+          <t>Stefan Schilling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4940,7 +4876,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:35.142-0800</t>
+          <t>2024-02-16T02:56:23.917-0800</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4950,7 +4886,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.4.4</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4960,7 +4896,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4972,39 +4908,35 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HHH-17673</t>
+          <t>HHH-17700</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Allow the use of StatementInspector in stateless sessions</t>
+          <t>Incorrect paginated native query with semicolon</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Awaiting Contribution</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jan Schatteman</t>
+          <t>François Vanhille</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-23T12:18:33.729-0800</t>
+          <t>2024-02-01T09:43:20.571-0800</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Jan Schatteman</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>François Vanhille</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5012,15 +4944,19 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-01-29T07:42:35.907-0800</t>
+          <t>2024-02-12T08:09:43.190-0800</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>6.4.2</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>['hibernate-core']</t>
@@ -5028,43 +4964,47 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HHH-17672</t>
+          <t>HHH-17699</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Support for list of Geometry or Array of Geometry</t>
+          <t>Hibernate.unproxy() does not unproxy lazy fetched collections correctly which are members of the unproxied object</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-23T11:49:46.894-0800</t>
+          <t>2024-02-01T09:24:09.810-0800</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Heitor Augusto</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Thomas Herth</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5072,60 +5012,60 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-01-24T02:30:31.565-0800</t>
+          <t>2024-02-02T03:01:43.609-0800</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>New Feature</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>6.4.1</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['hibernate-spatial']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HHH-17671</t>
+          <t>HHH-17698</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SqmPredicate copy fails</t>
+          <t>Association not populated when using entity graphs and setMaxResults</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Jan Schatteman</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-23T11:26:41.168-0800</t>
+          <t>2024-02-01T02:30:00.554-0800</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Aleksej Sem</t>
+          <t>Davide D'Alto</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -5136,7 +5076,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-02-12T07:37:12.492-0800</t>
+          <t>2024-02-02T05:31:59.615-0800</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5151,7 +5091,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5168,39 +5108,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HHH-17670</t>
+          <t>HHH-17697</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NPE in FromClause#findTableGroup</t>
+          <t>Remove deprecated annotations</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Christian Beikov</t>
-        </is>
-      </c>
+          <t>Awaiting Contribution</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-01-23T09:41:30.907-0800</t>
+          <t>2024-01-31T22:17:10.773-0800</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Christian Beikov</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Steve Ebersole</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5208,19 +5140,15 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-01-24T03:44:56.774-0800</t>
+          <t>2024-02-01T03:38:57.168-0800</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>6.3.2</t>
-        </is>
-      </c>
+          <t>Remove Feature</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5228,43 +5156,51 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['6.4.3', '6.2.22']</t>
+          <t>['7.0']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HHH-17669</t>
+          <t>HHH-17696</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cannot use full qualified enum name which has two uppercase alphabet prefix - Follow-up</t>
+          <t>AltibaseDialect should support Altibase 7.1 server and above</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Geoffrey Park</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-23T07:31:23.926-0800</t>
+          <t>2024-01-31T20:27:17.973-0800</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ZKM</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Geoffrey Park</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5272,64 +5208,60 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-01-23T23:57:13.282-0800</t>
+          <t>2024-02-05T04:34:32.068-0800</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>5.6.15</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HHH-17668</t>
+          <t>HHH-17695</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NullPointerException when refreshing bytecode-enhanced entity from second-level cache</t>
+          <t>Persistence fails when nested JSON aggregate is null</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-23T06:54:39.868-0800</t>
+          <t>2024-01-31T10:14:19.727-0800</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>Yorrick Lans</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5344,7 +5276,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:38.109-0800</t>
+          <t>2024-02-16T01:48:13.068-0800</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5354,7 +5286,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.4</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5364,7 +5296,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.4.5']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5376,39 +5308,31 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HHH-17667</t>
+          <t>HHH-17694</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Delete by type query with @DiscriminatorColumn generates SQL with a missing join</t>
+          <t>Repeatable annotations are not properly managed by JPAXMLOverriddenAnnotationReader</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-23T05:51:12.350-0800</t>
+          <t>2024-01-31T07:58:38.977-0800</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Marko Bekhta</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Stefano Gianelli</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5416,7 +5340,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:37.456-0800</t>
+          <t>2024-02-01T00:57:24.574-0800</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5431,29 +5355,29 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HHH-17666</t>
+          <t>HHH-17693</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Datetime truncation fails when argument is a converted property</t>
+          <t>Cannot use 'like' operand when an AttributeConverter is used to convert the attribute in a String</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5468,12 +5392,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-22T08:44:25.989-0800</t>
+          <t>2024-01-31T07:07:01.249-0800</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kai Zander</t>
+          <t>Stefano Gianelli</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5488,7 +5412,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-02-02T08:26:48.612-0800</t>
+          <t>2024-02-21T05:20:35.512-0800</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5498,17 +5422,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.3</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>['6.4.4']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5520,12 +5444,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HHH-17665</t>
+          <t>HHH-17692</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>java.lang.ClassCastException in some cases when loading child entities, mapped as joined-subclass.</t>
+          <t>FunctionArgumentException when using criteria coalesce with Join nodes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5533,24 +5457,20 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Marco Belladelli</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-22T06:24:48.366-0800</t>
+          <t>2024-01-31T04:42:16.959-0800</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Oleksii Demchenko</t>
+          <t>Bartlomiej Niemiec</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Won't Fix</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5560,7 +5480,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:35.921-0800</t>
+          <t>2024-01-31T04:46:23.735-0800</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5575,12 +5495,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['hibernate-core', 'query-criteria']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5592,31 +5512,39 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HHH-17664</t>
+          <t>HHH-17691</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cannot compare left expression of type 'java.lang.Object' with right expression of type 'java.io.Serializable'</t>
+          <t>Avoid sequence query when hbm2ddl will recreate sequences</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jan Schatteman</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-01-22T04:20:56.891-0800</t>
+          <t>2024-01-31T04:35:57.551-0800</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Aleksandar Vidaković</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5624,19 +5552,15 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-01-23T00:22:32.083-0800</t>
+          <t>2024-02-20T08:32:10.348-0800</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>6.4.2</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5644,24 +5568,24 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HHH-17663</t>
+          <t>HHH-17690</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>@SoftDelete query problem with Joined Inheritance hierarchy structure</t>
+          <t>Joins with Predicates using Criteria API in combination with EntityGraph poducing additional joins.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5672,17 +5596,17 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-20T21:48:44.221-0800</t>
+          <t>2024-01-31T01:40:23.035-0800</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Guillermo Gabriel Orue Marighetti</t>
+          <t>Sebastian Fincke</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Duplicate</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5692,7 +5616,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-01-23T23:48:26.477-0800</t>
+          <t>2024-02-02T02:36:45.024-0800</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5712,7 +5636,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5724,12 +5648,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HHH-17662</t>
+          <t>HHH-17689</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Memory leak in type registry</t>
+          <t>Cache SQL statement for unique key lookup</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5739,17 +5663,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Stephanie Miller</t>
+          <t>Christian Beikov</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-20T10:59:34.240-0800</t>
+          <t>2024-01-30T09:42:21.886-0800</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Stephanie Miller</t>
+          <t>Christian Beikov</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5764,7 +5688,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-02-08T05:15:47.243-0800</t>
+          <t>2024-02-02T00:53:38.394-0800</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5774,7 +5698,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>6.4.0</t>
+          <t>6.4.2</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5784,7 +5708,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['6.4.4']</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5796,31 +5720,39 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HHH-17661</t>
+          <t>HHH-17688</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The jpamodelgen component caused compilation failure</t>
+          <t>Mutation statements using delegates do not consistently release statements</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-20T07:42:07.158-0800</t>
+          <t>2024-01-30T05:26:47.301-0800</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>汪洪州</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Marco Belladelli</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5828,7 +5760,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-01-21T21:47:30.056-0800</t>
+          <t>2024-02-08T05:15:46.961-0800</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5838,53 +5770,61 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>6.3.2</t>
+          <t>6.4.3</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['hibernate-jpamodelgen']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.4']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HHH-17660</t>
+          <t>HHH-17687</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">JsonType is saved twice </t>
+          <t>AttributeConverter, query does not use converter to convert 'null' fields</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Andrea Boriero</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-19T10:49:39.163-0800</t>
+          <t>2024-01-30T02:23:49.277-0800</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Björn Häuser</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>Vadym Kovalchuk</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5892,7 +5832,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-01-25T06:49:16.250-0800</t>
+          <t>2024-02-02T00:53:39.284-0800</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5907,49 +5847,49 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HHH-17659</t>
+          <t>HHH-17686</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BeansMessageLogger is overly verbose</t>
+          <t>Join with inheritance subtype association doesn't trigger auto-flush</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sanne Grinovero</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-19T10:05:13.870-0800</t>
+          <t>2024-01-29T07:46:04.691-0800</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sanne Grinovero</t>
+          <t>Miroslav Šilhavý</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5964,15 +5904,19 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-01-22T04:09:34.370-0800</t>
+          <t>2024-02-02T00:53:39.147-0800</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>6.4.2</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5980,7 +5924,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['6.5.0']</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -5992,31 +5936,35 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HHH-17658</t>
+          <t>HHH-17685</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Supply chain attacks in Maven + vulnerable dependencies in Hibernate projects</t>
+          <t>In-Predicate with Enum requires cast in Oracle</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-19T06:43:58.721-0800</t>
+          <t>2024-01-29T05:37:16.445-0800</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Security Team</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>Martin Vlcek</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Out of Date</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6024,7 +5972,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-01-24T08:14:50.175-0800</t>
+          <t>2024-02-16T04:08:35.142-0800</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6032,7 +5980,11 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>6.3.1</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6045,35 +5997,35 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HHH-17657</t>
+          <t>HHH-17684</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hibernate 6.4.1 breaks enum handling when persisting to H2</t>
+          <t>java.lang.IllegalArgumentException: Expecting collection type [java.lang.Object] after upgrading Hibernate-core to 5.6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Awaiting Response</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-19T05:37:47.469-0800</t>
+          <t>2024-01-29T03:58:30.218-0800</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>user20885407</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -6084,7 +6036,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-02-06T23:46:18.964-0800</t>
+          <t>2024-02-01T02:13:23.065-0800</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6092,14 +6044,10 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>6.4.1</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6116,35 +6064,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HHH-17656</t>
+          <t>HHH-17683</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PREFERRED_BOOLEAN_JDBC_TYPE is ignored in Envers tables</t>
+          <t>hibernate-jpamodelgen generates wrong constructor for metamodel of entities whose methods contain a `static EntityManager getEntityManager()`</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Chris Cranford</t>
+          <t>Gavin King</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-19T02:02:07.069-0800</t>
+          <t>2024-01-29T02:56:40.042-0800</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LAdO</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>Yoann Rodière</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6152,7 +6104,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-01-19T02:02:07.190-0800</t>
+          <t>2024-02-02T00:53:37.336-0800</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6162,53 +6114,61 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.4.2</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['hibernate-envers']</t>
+          <t>['hibernate-jpamodelgen']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HHH-17655</t>
+          <t>HHH-17682</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PREFERRED_BOOLEAN_JDBC_TYPE setting along with the used NumericBooleanConverter for boolean columns is ignored</t>
+          <t>Expose JpaRoot interface on CriteriaUpdate/CriteriaDelete queries</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-19T01:43:46.926-0800</t>
+          <t>2024-01-26T06:32:35.186-0800</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>LAdO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>Yoann Rodière</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6216,63 +6176,67 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-01-19T04:44:35.689-0800</t>
+          <t>2024-01-28T23:48:51.946-0800</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>6.4.1</t>
-        </is>
-      </c>
+          <t>Improvement</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>['query-criteria']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HHH-17654</t>
+          <t>HHH-17681</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cannot invoke "Object.getClass()" because "proxy" is null</t>
+          <t>Restore AbstractSqmSelfRenderingFunctionDescriptor backwards compatibility</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-19T01:27:34.113-0800</t>
+          <t>2024-01-26T03:23:45.392-0800</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sven Strickroth</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6280,7 +6244,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-01-19T04:44:32.589-0800</t>
+          <t>2024-02-02T00:53:37.801-0800</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6290,7 +6254,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>6.4.2</t>
+          <t>6.4.0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6300,51 +6264,43 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HHH-17653</t>
+          <t>HHH-17680</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error in generating schema when @Generator annotation is applied to a non id embeddable property </t>
+          <t xml:space="preserve">More than one entities that have LIST&lt;STRING&gt; entity properties with/without @JdbcTypeCode(SqlTypes.JSON) have different effects in Linux and Windows </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Andrea Boriero</t>
-        </is>
-      </c>
+          <t>Awaiting Response</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-18T06:44:19.292-0800</t>
+          <t>2024-01-25T22:56:43.905-0800</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>FLorent manrtin</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Orwen Xiang</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6352,7 +6308,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:36.206-0800</t>
+          <t>2024-02-01T02:37:15.968-0800</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6367,52 +6323,56 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HHH-17652</t>
+          <t>HHH-17679</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cannot invoke "org.hibernate.envers.internal.entities.EntityConfiguration.getRelationDescription(String)" because "entCfg" is null</t>
+          <t>Unnecessary entity name usage leads to collection element join</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Waiting for review</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Chris Cranford</t>
+          <t>Marco Belladelli</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-18T05:48:58.089-0800</t>
+          <t>2024-01-25T04:49:31.049-0800</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ádám Kovács</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>Christian Beikov</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6420,7 +6380,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-01-18T07:33:00.161-0800</t>
+          <t>2024-02-02T00:53:36.913-0800</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6430,34 +6390,34 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>6.2.17</t>
+          <t>6.4.2</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['hibernate-envers']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HHH-17651</t>
+          <t>HHH-17678</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Missing type information of parametrized supertype</t>
+          <t>ClassCastExceptiClassCastException with Hibernate ORM 6.4.2 and Spring Boot 3.2.2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6468,12 +6428,12 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-18T05:41:55.303-0800</t>
+          <t>2024-01-25T00:34:06.845-0800</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Denis Günther</t>
+          <t>胡兴哲</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -6484,7 +6444,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-01-22T17:17:14.973-0800</t>
+          <t>2024-01-31T04:28:42.470-0800</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6494,7 +6454,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.4.2</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6516,31 +6476,39 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HHH-17650</t>
+          <t>HHH-17677</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"none" bytecode provider no longer works, cannot build native image</t>
+          <t>COALESCE usage in SQL is broken when giving NULL as second parameter</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Gavin King</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-18T04:40:54.853-0800</t>
+          <t>2024-01-24T23:58:11.639-0800</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tomas Langer</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>Mikael Korpimaa</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6548,7 +6516,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-02-05T04:14:58.927-0800</t>
+          <t>2024-02-02T00:53:36.350-0800</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6558,53 +6526,61 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.4.0</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['bytecode-enhancement', 'hibernate-enhance-maven-plugin']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HHH-17649</t>
+          <t>HHH-17676</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oracle Dialect: SetMaxResults is generating an invalid query </t>
+          <t>Referenced column  mapped by target property  occurs out of order in the list of '@JoinColumn's</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Awaiting Response</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Andrea Boriero</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-16T22:31:11.116-0800</t>
+          <t>2024-01-24T08:50:43.681-0800</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Christoph Aigensberger</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>xz</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Out of Date</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6612,7 +6588,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-01-22T04:44:56.405-0800</t>
+          <t>2024-02-05T04:59:40.288-0800</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6620,7 +6596,11 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>6.4.1</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6633,66 +6613,70 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HHH-17648</t>
+          <t>HHH-17675</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CLONE - CVE-2020-25638 Potential for SQL injection on use_sql_comments logging enabled  @ 5.2.x</t>
+          <t>Support enum type on H2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jürgen Kreitler</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-16T07:12:53.383-0800</t>
+          <t>2024-01-24T07:01:09.215-0800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dragos Onac</t>
+          <t>Jürgen Kreitler</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Blocker</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-01-24T05:36:50.307-0800</t>
+          <t>2024-01-25T02:15:03.722-0800</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Improvement</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6704,12 +6688,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HHH-17647</t>
+          <t>HHH-17674</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CVE-2020-25638 Potential for SQL injection on use_sql_commands @ 5.2.x</t>
+          <t>NullPointerException thrown when loading entity previously evicted and proxied</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6717,20 +6701,24 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Andrea Boriero</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-16T07:10:55.662-0800</t>
+          <t>2024-01-24T03:33:14.911-0800</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Dragos Onac</t>
+          <t>Piotr Wolny</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6740,23 +6728,27 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-01-16T13:06:57.902-0800</t>
+          <t>2024-02-02T00:53:35.142-0800</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>6.4.1</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -6768,31 +6760,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HHH-17646</t>
+          <t>HHH-17673</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JOINED @Inheritance leads to bad performance in Hibernate 6</t>
+          <t>Allow the use of StatementInspector in stateless sessions</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Awaiting Contribution</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jan Schatteman</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-16T05:23:57.252-0800</t>
+          <t>2024-01-23T12:18:33.729-0800</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>David Kolb</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t>Jan Schatteman</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-02-07T05:06:09.937-0800</t>
+          <t>2024-01-29T07:42:35.907-0800</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6808,52 +6808,48 @@
           <t>Improvement</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>6.3.2</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['query-sql']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.5.0']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HHH-17645</t>
+          <t>HHH-17672</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jakarta persistence @Convert not working since hibernate v 6.2.0.Final</t>
+          <t>Support for list of Geometry or Array of Geometry</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Awaiting Test Case</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-12T06:32:20.579-0800</t>
+          <t>2024-01-23T11:49:46.894-0800</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jana Wouters</t>
+          <t>Heitor Augusto</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -6864,22 +6860,18 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-01-19T00:15:18.810-0800</t>
+          <t>2024-01-24T02:30:31.565-0800</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>6.2.0</t>
-        </is>
-      </c>
+          <t>New Feature</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hibernate-spatial']</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6896,39 +6888,35 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HHH-17644</t>
+          <t>HHH-17671</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mapping of generic types in single table inheritance depends on lexicographical order of parent and child classnames</t>
+          <t>SqmPredicate copy fails</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Awaiting Contribution</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Andrea Boriero</t>
+          <t>Jan Schatteman</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-12T03:34:55.402-0800</t>
+          <t>2024-01-23T11:26:41.168-0800</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
+          <t>Aleksej Sem</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>Major</t>
@@ -6936,7 +6924,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-02-02T00:53:37.041-0800</t>
+          <t>2024-02-12T07:37:12.492-0800</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6944,32 +6932,36 @@
           <t>Bug</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>6.4.2</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['hibernate-orm-modules']</t>
+          <t>['hibernate-core']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['6.4.3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HHH-17643</t>
+          <t>HHH-17670</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Allow uninitialized proxy serialization even when a SessionFactory is not available</t>
+          <t>NPE in FromClause#findTableGroup</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6979,17 +6971,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Christian Beikov</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-12T00:11:25.484-0800</t>
+          <t>2024-01-23T09:41:30.907-0800</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Marco Belladelli</t>
+          <t>Christian Beikov</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7004,7 +6996,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-01-22T03:21:38.867-0800</t>
+          <t>2024-01-24T03:44:56.774-0800</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7014,7 +7006,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>6.3.2</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7024,7 +7016,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['6.2.21', '6.4.3']</t>
+          <t>['6.4.3', '6.2.22']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7036,28 +7028,28 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HHH-17642</t>
+          <t>HHH-17669</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Exception Stack Trace":"org.hibernate.query.sqm.InterpretationException: Error interpreting query [SqmRoot not yet resolved to TableGroup]</t>
+          <t>Cannot use full qualified enum name which has two uppercase alphabet prefix - Follow-up</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Awaiting Test Case</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-11T11:24:23.383-0800</t>
+          <t>2024-01-23T07:31:23.926-0800</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kumar Vinesh Rahangdale</t>
+          <t>ZKM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -7068,7 +7060,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-01-15T01:27:52.599-0800</t>
+          <t>2024-01-23T23:57:13.282-0800</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7078,12 +7070,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>6.4.1</t>
+          <t>5.6.15</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['hibernate-core', 'hibernate-envers', 'hibernate-spatial', 'query-criteria']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7100,37 +7092,37 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HHH-17641</t>
+          <t>HHH-17668</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Improve error message "Could not identify any active SessionFactory having UUID" to also show the SessionFactory name.</t>
+          <t>NullPointerException when refreshing bytecode-enhanced entity from second-level cache</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Resolved</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
+          <t>Andrea Boriero</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-01-11T07:35:40.111-0800</t>
+          <t>2024-01-23T06:54:39.868-0800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Scott Marlow</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Won't Fix</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7140,23 +7132,27 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2024-01-11T09:57:39.571-0800</t>
+          <t>2024-02-02T00:53:38.109-0800</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>6.4.2</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['hibernate-core']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6.4.3']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
